--- a/Lifespans_Humans.xlsx
+++ b/Lifespans_Humans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericnazarenus/Library/Mobile Documents/com~apple~CloudDocs/Uni/WS2023/Data Literacy/Project/Data-Literacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E57289-1E11-9B45-B0F2-54214C5B7A73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88376EF-2FE8-1941-A40F-83E89CAE662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3620" yWindow="5000" windowWidth="28040" windowHeight="17280" xr2:uid="{8A467DAD-C000-204B-B6F4-A0CC7F7C1A0F}"/>
+    <workbookView xWindow="2200" yWindow="860" windowWidth="28040" windowHeight="17280" xr2:uid="{8A467DAD-C000-204B-B6F4-A0CC7F7C1A0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
   <si>
     <t>Year</t>
   </si>
@@ -375,6 +375,342 @@
   </si>
   <si>
     <t>10.78</t>
+  </si>
+  <si>
+    <t>774870.00</t>
+  </si>
+  <si>
+    <t>794132.00</t>
+  </si>
+  <si>
+    <t>802415.00</t>
+  </si>
+  <si>
+    <t>807816.00</t>
+  </si>
+  <si>
+    <t>782143.00</t>
+  </si>
+  <si>
+    <t>771479.00</t>
+  </si>
+  <si>
+    <t>743954.00</t>
+  </si>
+  <si>
+    <t>741969.00</t>
+  </si>
+  <si>
+    <t>725807.00</t>
+  </si>
+  <si>
+    <t>743761.00</t>
+  </si>
+  <si>
+    <t>732376.00</t>
+  </si>
+  <si>
+    <t>751663.00</t>
+  </si>
+  <si>
+    <t>746670.00</t>
+  </si>
+  <si>
+    <t>731698.00</t>
+  </si>
+  <si>
+    <t>740506.00</t>
+  </si>
+  <si>
+    <t>756823.00</t>
+  </si>
+  <si>
+    <t>757882.00</t>
+  </si>
+  <si>
+    <t>771938.00</t>
+  </si>
+  <si>
+    <t>798514.00</t>
+  </si>
+  <si>
+    <t>854086.00</t>
+  </si>
+  <si>
+    <t>878869.00</t>
+  </si>
+  <si>
+    <t>905902.00</t>
+  </si>
+  <si>
+    <t>947646.00</t>
+  </si>
+  <si>
+    <t>944591.00</t>
+  </si>
+  <si>
+    <t>931423.00</t>
+  </si>
+  <si>
+    <t>947032.00</t>
+  </si>
+  <si>
+    <t>978142.00</t>
+  </si>
+  <si>
+    <t>995515.00</t>
+  </si>
+  <si>
+    <t>1030314.00</t>
+  </si>
+  <si>
+    <t>1123468.00</t>
+  </si>
+  <si>
+    <t>1109227.00</t>
+  </si>
+  <si>
+    <t>1133582.00</t>
+  </si>
+  <si>
+    <t>1109010.00</t>
+  </si>
+  <si>
+    <t>1088700.00</t>
+  </si>
+  <si>
+    <t>1055201.00</t>
+  </si>
+  <si>
+    <t>1048086.00</t>
+  </si>
+  <si>
+    <t>1048762.00</t>
+  </si>
+  <si>
+    <t>1069168.00</t>
+  </si>
+  <si>
+    <t>1059479.00</t>
+  </si>
+  <si>
+    <t>1063715.00</t>
+  </si>
+  <si>
+    <t>1011818.00</t>
+  </si>
+  <si>
+    <t>997428.00</t>
+  </si>
+  <si>
+    <t>987623.00</t>
+  </si>
+  <si>
+    <t>968885.00</t>
+  </si>
+  <si>
+    <t>943272.00</t>
+  </si>
+  <si>
+    <t>954462.00</t>
+  </si>
+  <si>
+    <t>960829.00</t>
+  </si>
+  <si>
+    <t>1038797.00</t>
+  </si>
+  <si>
+    <t>1139590.00</t>
+  </si>
+  <si>
+    <t>1179680.00</t>
+  </si>
+  <si>
+    <t>1263945.00</t>
+  </si>
+  <si>
+    <t>1320960.00</t>
+  </si>
+  <si>
+    <t>1352770.00</t>
+  </si>
+  <si>
+    <t>1385608.00</t>
+  </si>
+  <si>
+    <t>1386952.00</t>
+  </si>
+  <si>
+    <t>1408832.00</t>
+  </si>
+  <si>
+    <t>1392942.00</t>
+  </si>
+  <si>
+    <t>1344388.00</t>
+  </si>
+  <si>
+    <t>1319852.00</t>
+  </si>
+  <si>
+    <t>1271291.00</t>
+  </si>
+  <si>
+    <t>1230109.00</t>
+  </si>
+  <si>
+    <t>1157125.00</t>
+  </si>
+  <si>
+    <t>1124758.00</t>
+  </si>
+  <si>
+    <t>1087957.00</t>
+  </si>
+  <si>
+    <t>1047822.00</t>
+  </si>
+  <si>
+    <t>1021046.00</t>
+  </si>
+  <si>
+    <t>981186.00</t>
+  </si>
+  <si>
+    <t>972595.00</t>
+  </si>
+  <si>
+    <t>946118.00</t>
+  </si>
+  <si>
+    <t>938087.00</t>
+  </si>
+  <si>
+    <t>898100.00</t>
+  </si>
+  <si>
+    <t>811462.00</t>
+  </si>
+  <si>
+    <t>754507.00</t>
+  </si>
+  <si>
+    <t>648189.00</t>
+  </si>
+  <si>
+    <t>561837.00</t>
+  </si>
+  <si>
+    <t>740528.00</t>
+  </si>
+  <si>
+    <t>740375.00</t>
+  </si>
+  <si>
+    <t>704285.00</t>
+  </si>
+  <si>
+    <t>836403.00</t>
+  </si>
+  <si>
+    <t>854829.00</t>
+  </si>
+  <si>
+    <t>814346.00</t>
+  </si>
+  <si>
+    <t>726011.00</t>
+  </si>
+  <si>
+    <t>643708.00</t>
+  </si>
+  <si>
+    <t>585337.00</t>
+  </si>
+  <si>
+    <t>524879.00</t>
+  </si>
+  <si>
+    <t>447140.00</t>
+  </si>
+  <si>
+    <t>325904.00</t>
+  </si>
+  <si>
+    <t>290120.00</t>
+  </si>
+  <si>
+    <t>261406.00</t>
+  </si>
+  <si>
+    <t>237315.00</t>
+  </si>
+  <si>
+    <t>198540.92</t>
+  </si>
+  <si>
+    <t>163195.80</t>
+  </si>
+  <si>
+    <t>124992.97</t>
+  </si>
+  <si>
+    <t>98483.84</t>
+  </si>
+  <si>
+    <t>75933.69</t>
+  </si>
+  <si>
+    <t>53297.81</t>
+  </si>
+  <si>
+    <t>38017.10</t>
+  </si>
+  <si>
+    <t>27451.73</t>
+  </si>
+  <si>
+    <t>19383.24</t>
+  </si>
+  <si>
+    <t>12489.38</t>
+  </si>
+  <si>
+    <t>6152.21</t>
+  </si>
+  <si>
+    <t>2304.36</t>
+  </si>
+  <si>
+    <t>1323.93</t>
+  </si>
+  <si>
+    <t>813.28</t>
+  </si>
+  <si>
+    <t>571.06</t>
+  </si>
+  <si>
+    <t>405.27</t>
+  </si>
+  <si>
+    <t>191.94</t>
+  </si>
+  <si>
+    <t>90.64</t>
+  </si>
+  <si>
+    <t>41.09</t>
+  </si>
+  <si>
+    <t>17.47</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>10.34</t>
   </si>
 </sst>
 </file>
@@ -416,10 +752,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -736,15 +1071,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DCB469-BC64-954E-AEBC-A07E694AA8D8}">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="K97" sqref="K97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -754,8 +1089,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2020</v>
       </c>
@@ -765,8 +1103,11 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2020</v>
       </c>
@@ -776,8 +1117,11 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2020</v>
       </c>
@@ -787,8 +1131,11 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2020</v>
       </c>
@@ -798,8 +1145,11 @@
       <c r="C5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2020</v>
       </c>
@@ -809,8 +1159,11 @@
       <c r="C6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2020</v>
       </c>
@@ -820,8 +1173,11 @@
       <c r="C7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2020</v>
       </c>
@@ -831,8 +1187,11 @@
       <c r="C8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2020</v>
       </c>
@@ -842,8 +1201,11 @@
       <c r="C9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2020</v>
       </c>
@@ -853,8 +1215,11 @@
       <c r="C10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2020</v>
       </c>
@@ -864,8 +1229,11 @@
       <c r="C11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2020</v>
       </c>
@@ -875,8 +1243,11 @@
       <c r="C12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2020</v>
       </c>
@@ -886,8 +1257,11 @@
       <c r="C13" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2020</v>
       </c>
@@ -897,8 +1271,11 @@
       <c r="C14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2020</v>
       </c>
@@ -908,8 +1285,11 @@
       <c r="C15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2020</v>
       </c>
@@ -919,8 +1299,11 @@
       <c r="C16" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2020</v>
       </c>
@@ -930,8 +1313,11 @@
       <c r="C17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2020</v>
       </c>
@@ -941,8 +1327,11 @@
       <c r="C18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2020</v>
       </c>
@@ -952,8 +1341,11 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2020</v>
       </c>
@@ -963,8 +1355,11 @@
       <c r="C20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2020</v>
       </c>
@@ -974,8 +1369,11 @@
       <c r="C21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2020</v>
       </c>
@@ -985,8 +1383,11 @@
       <c r="C22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2020</v>
       </c>
@@ -996,8 +1397,11 @@
       <c r="C23" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2020</v>
       </c>
@@ -1007,8 +1411,11 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2020</v>
       </c>
@@ -1018,8 +1425,11 @@
       <c r="C25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2020</v>
       </c>
@@ -1029,8 +1439,11 @@
       <c r="C26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2020</v>
       </c>
@@ -1040,8 +1453,11 @@
       <c r="C27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2020</v>
       </c>
@@ -1051,8 +1467,11 @@
       <c r="C28" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2020</v>
       </c>
@@ -1062,8 +1481,11 @@
       <c r="C29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2020</v>
       </c>
@@ -1073,8 +1495,11 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2020</v>
       </c>
@@ -1084,8 +1509,11 @@
       <c r="C31" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2020</v>
       </c>
@@ -1095,8 +1523,11 @@
       <c r="C32" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2020</v>
       </c>
@@ -1106,8 +1537,11 @@
       <c r="C33" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2020</v>
       </c>
@@ -1117,8 +1551,11 @@
       <c r="C34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2020</v>
       </c>
@@ -1128,8 +1565,11 @@
       <c r="C35" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2020</v>
       </c>
@@ -1139,8 +1579,11 @@
       <c r="C36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2020</v>
       </c>
@@ -1150,8 +1593,11 @@
       <c r="C37" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2020</v>
       </c>
@@ -1161,8 +1607,11 @@
       <c r="C38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2020</v>
       </c>
@@ -1172,8 +1621,11 @@
       <c r="C39" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2020</v>
       </c>
@@ -1183,8 +1635,11 @@
       <c r="C40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2020</v>
       </c>
@@ -1194,8 +1649,11 @@
       <c r="C41" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2020</v>
       </c>
@@ -1205,8 +1663,11 @@
       <c r="C42" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2020</v>
       </c>
@@ -1216,8 +1677,11 @@
       <c r="C43" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2020</v>
       </c>
@@ -1227,8 +1691,11 @@
       <c r="C44" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2020</v>
       </c>
@@ -1238,8 +1705,11 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2020</v>
       </c>
@@ -1249,8 +1719,11 @@
       <c r="C46" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2020</v>
       </c>
@@ -1260,8 +1733,11 @@
       <c r="C47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2020</v>
       </c>
@@ -1271,8 +1747,11 @@
       <c r="C48" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2020</v>
       </c>
@@ -1282,8 +1761,11 @@
       <c r="C49" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2020</v>
       </c>
@@ -1293,8 +1775,11 @@
       <c r="C50" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2020</v>
       </c>
@@ -1304,8 +1789,11 @@
       <c r="C51" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2020</v>
       </c>
@@ -1315,8 +1803,11 @@
       <c r="C52" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2020</v>
       </c>
@@ -1326,8 +1817,11 @@
       <c r="C53" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2020</v>
       </c>
@@ -1337,8 +1831,11 @@
       <c r="C54" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2020</v>
       </c>
@@ -1348,8 +1845,11 @@
       <c r="C55" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2020</v>
       </c>
@@ -1359,8 +1859,11 @@
       <c r="C56" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2020</v>
       </c>
@@ -1370,8 +1873,11 @@
       <c r="C57" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2020</v>
       </c>
@@ -1381,8 +1887,11 @@
       <c r="C58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2020</v>
       </c>
@@ -1392,8 +1901,11 @@
       <c r="C59" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2020</v>
       </c>
@@ -1403,8 +1915,11 @@
       <c r="C60" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2020</v>
       </c>
@@ -1414,8 +1929,11 @@
       <c r="C61" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2020</v>
       </c>
@@ -1425,8 +1943,11 @@
       <c r="C62" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2020</v>
       </c>
@@ -1436,8 +1957,11 @@
       <c r="C63" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2020</v>
       </c>
@@ -1447,8 +1971,11 @@
       <c r="C64" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2020</v>
       </c>
@@ -1458,8 +1985,11 @@
       <c r="C65" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2020</v>
       </c>
@@ -1469,8 +1999,11 @@
       <c r="C66" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2020</v>
       </c>
@@ -1480,8 +2013,11 @@
       <c r="C67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D67" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2020</v>
       </c>
@@ -1491,8 +2027,11 @@
       <c r="C68" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D68" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2020</v>
       </c>
@@ -1502,8 +2041,11 @@
       <c r="C69" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D69" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2020</v>
       </c>
@@ -1513,8 +2055,11 @@
       <c r="C70" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D70" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2020</v>
       </c>
@@ -1524,8 +2069,11 @@
       <c r="C71" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2020</v>
       </c>
@@ -1535,8 +2083,11 @@
       <c r="C72" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2020</v>
       </c>
@@ -1546,8 +2097,11 @@
       <c r="C73" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2020</v>
       </c>
@@ -1557,8 +2111,11 @@
       <c r="C74" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2020</v>
       </c>
@@ -1568,8 +2125,11 @@
       <c r="C75" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2020</v>
       </c>
@@ -1579,8 +2139,11 @@
       <c r="C76" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2020</v>
       </c>
@@ -1590,8 +2153,11 @@
       <c r="C77" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D77" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2020</v>
       </c>
@@ -1601,8 +2167,11 @@
       <c r="C78" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D78" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2020</v>
       </c>
@@ -1612,8 +2181,11 @@
       <c r="C79" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2020</v>
       </c>
@@ -1623,8 +2195,11 @@
       <c r="C80" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D80" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2020</v>
       </c>
@@ -1634,8 +2209,11 @@
       <c r="C81" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D81" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2020</v>
       </c>
@@ -1645,8 +2223,11 @@
       <c r="C82" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D82" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2020</v>
       </c>
@@ -1656,8 +2237,11 @@
       <c r="C83" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D83" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2020</v>
       </c>
@@ -1667,8 +2251,11 @@
       <c r="C84" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D84" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2020</v>
       </c>
@@ -1678,8 +2265,11 @@
       <c r="C85" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D85" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2020</v>
       </c>
@@ -1689,8 +2279,11 @@
       <c r="C86" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2020</v>
       </c>
@@ -1700,8 +2293,11 @@
       <c r="C87" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2020</v>
       </c>
@@ -1711,8 +2307,11 @@
       <c r="C88" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2020</v>
       </c>
@@ -1722,8 +2321,11 @@
       <c r="C89" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2020</v>
       </c>
@@ -1733,8 +2335,11 @@
       <c r="C90" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2020</v>
       </c>
@@ -1744,8 +2349,11 @@
       <c r="C91" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2020</v>
       </c>
@@ -1755,8 +2363,11 @@
       <c r="C92" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2020</v>
       </c>
@@ -1766,8 +2377,11 @@
       <c r="C93" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2020</v>
       </c>
@@ -1777,8 +2391,11 @@
       <c r="C94" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2020</v>
       </c>
@@ -1788,8 +2405,11 @@
       <c r="C95" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2020</v>
       </c>
@@ -1799,8 +2419,11 @@
       <c r="C96" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2020</v>
       </c>
@@ -1810,8 +2433,11 @@
       <c r="C97" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2020</v>
       </c>
@@ -1821,8 +2447,11 @@
       <c r="C98" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2020</v>
       </c>
@@ -1832,8 +2461,11 @@
       <c r="C99" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2020</v>
       </c>
@@ -1843,8 +2475,11 @@
       <c r="C100" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2020</v>
       </c>
@@ -1854,8 +2489,11 @@
       <c r="C101" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2020</v>
       </c>
@@ -1865,8 +2503,11 @@
       <c r="C102" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2020</v>
       </c>
@@ -1876,8 +2517,11 @@
       <c r="C103" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2020</v>
       </c>
@@ -1887,8 +2531,11 @@
       <c r="C104" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2020</v>
       </c>
@@ -1898,8 +2545,11 @@
       <c r="C105" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2020</v>
       </c>
@@ -1909,8 +2559,11 @@
       <c r="C106" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2020</v>
       </c>
@@ -1920,8 +2573,11 @@
       <c r="C107" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2020</v>
       </c>
@@ -1931,9 +2587,12 @@
       <c r="C108" t="s">
         <v>108</v>
       </c>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>219</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2020</v>
       </c>
@@ -1943,9 +2602,12 @@
       <c r="C109" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>220</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2020</v>
       </c>
@@ -1955,9 +2617,11 @@
       <c r="C110" t="s">
         <v>110</v>
       </c>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2020</v>
       </c>
@@ -1967,18 +2631,25 @@
       <c r="C111" t="s">
         <v>111</v>
       </c>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>222</v>
+      </c>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2020</v>
       </c>
       <c r="B112">
         <v>110</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C112" s="3" t="s">
         <v>112</v>
       </c>
+      <c r="D112" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H112" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Lifespans_Humans.xlsx
+++ b/Lifespans_Humans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericnazarenus/Library/Mobile Documents/com~apple~CloudDocs/Uni/WS2023/Data Literacy/Project/Data-Literacy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88376EF-2FE8-1941-A40F-83E89CAE662A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36DF0E48-45E6-0549-B686-0E27710454FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="860" windowWidth="28040" windowHeight="17280" xr2:uid="{8A467DAD-C000-204B-B6F4-A0CC7F7C1A0F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>Year</t>
   </si>
@@ -708,9 +708,6 @@
   </si>
   <si>
     <t>Population</t>
-  </si>
-  <si>
-    <t>10.34</t>
   </si>
 </sst>
 </file>
@@ -1073,8 +1070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11DCB469-BC64-954E-AEBC-A07E694AA8D8}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="K97" sqref="K97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2647,7 +2644,7 @@
         <v>112</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H112" s="2"/>
     </row>
